--- a/bank statement generator/bank_statements/statement_33.xlsx
+++ b/bank statement generator/bank_statements/statement_33.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 08.11.2023</t>
+          <t>KONTOSTAND AM 19.02.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,34 +759,34 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>11.11.</t>
+          <t>23.02.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>12.11.</t>
+          <t>24.02.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>EBAY MKTPLC EU ZBVVMB</t>
+          <t>RECHNUNG VODAFONE GMBH 63577997</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>29,28-</t>
+          <t>37,60-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>14.11.</t>
+          <t>24.02.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>15.11.</t>
+          <t>25.02.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
@@ -796,59 +796,75 @@
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>22,64-</t>
+          <t>25,14-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>15.11.</t>
+          <t>27.02.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>16.11.</t>
+          <t>28.02.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 31881002</t>
+          <t>KARTENZAHLUNG SHELL TANKSTELLE</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>84,52-</t>
+          <t>70,48-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>19.11.</t>
+          <t>29.02.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>20.11.</t>
+          <t>01.03.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG SHELL TANKSTELLE</t>
+          <t>BEITRAG Allianz SE K-47431116</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>63,26-</t>
+          <t>54,03-</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="12" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>03.03.</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>04.03.</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 77479917</t>
+        </is>
+      </c>
+      <c r="E10" s="17" t="inlineStr">
+        <is>
+          <t>86,84-</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="n"/>
@@ -861,12 +877,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 24.11.2023</t>
+          <t>KONTOSTAND AM 06.03.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>199,70-</t>
+          <t>274,09-</t>
         </is>
       </c>
     </row>
@@ -874,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 04.12.2023</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 15.03.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
